--- a/tabular/genus/dependo-refseqs-side-data.xlsx
+++ b/tabular/genus/dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/AAV-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87B8951-537C-F246-B851-3CC1FE1C9936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF1CC9-B8AE-C040-AF24-1975D2781A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
   <si>
     <t>accession-ID</t>
   </si>
@@ -2717,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:M32"/>
+      <selection activeCell="I30" sqref="A1:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2734,10 +2734,9 @@
     <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="26.83203125" customWidth="1"/>
     <col min="12" max="12" width="20.1640625" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2774,11 +2773,8 @@
       <c r="L1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
@@ -2815,11 +2811,8 @@
       <c r="L2" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2856,11 +2849,8 @@
       <c r="L3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -2897,11 +2887,8 @@
       <c r="L4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
@@ -2938,11 +2925,8 @@
       <c r="L5" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>84</v>
       </c>
@@ -2977,11 +2961,8 @@
       <c r="L6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>86</v>
       </c>
@@ -3016,11 +2997,8 @@
       <c r="L7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>89</v>
       </c>
@@ -3055,11 +3033,8 @@
       <c r="L8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>88</v>
       </c>
@@ -3094,11 +3069,8 @@
       <c r="L9" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>87</v>
       </c>
@@ -3133,11 +3105,8 @@
       <c r="L10" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -3174,11 +3143,8 @@
       <c r="L11" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -3215,11 +3181,8 @@
       <c r="L12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -3256,11 +3219,8 @@
       <c r="L13" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -3297,11 +3257,8 @@
       <c r="L14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
@@ -3338,11 +3295,8 @@
       <c r="L15" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -3379,11 +3333,8 @@
       <c r="L16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -3420,11 +3371,8 @@
       <c r="L17" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -3461,11 +3409,8 @@
       <c r="L18" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -3502,11 +3447,8 @@
       <c r="L19" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
@@ -3543,11 +3485,8 @@
       <c r="L20" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M20" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -3584,11 +3523,8 @@
       <c r="L21" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -3625,11 +3561,8 @@
       <c r="L22" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>30</v>
       </c>
@@ -3666,11 +3599,8 @@
       <c r="L23" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -3707,11 +3637,8 @@
       <c r="L24" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -3748,11 +3675,8 @@
       <c r="L25" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -3789,11 +3713,8 @@
       <c r="L26" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M26" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -3830,11 +3751,8 @@
       <c r="L27" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
@@ -3871,11 +3789,8 @@
       <c r="L28" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
@@ -3910,11 +3825,8 @@
       <c r="L29" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M29" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>104</v>
       </c>
@@ -3951,11 +3863,8 @@
       <c r="L30" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M30" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
@@ -3992,11 +3901,8 @@
       <c r="L31" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>79</v>
       </c>
@@ -4033,12 +3939,9 @@
       <c r="L32" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
     <sortCondition ref="H2:H32"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/genus/dependo-refseqs-side-data.xlsx
+++ b/tabular/genus/dependo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF1CC9-B8AE-C040-AF24-1975D2781A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437841E7-BA86-A34E-AA98-EDB015F3CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
-  <si>
-    <t>accession-ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="127">
   <si>
     <t>virus_name</t>
   </si>
@@ -400,6 +397,15 @@
   </si>
   <si>
     <t>assign_subclade</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -2717,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="A1:L32"/>
+      <selection activeCell="H16" sqref="A1:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2728,1221 +2734,1317 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="4" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>108</v>
+      <c r="F4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="K5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="10" t="b">
+      <c r="M5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="9" t="b">
+        <v>112</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="9" t="b">
+        <v>112</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="9" t="b">
+        <v>112</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="7" t="b">
+        <v>113</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="7" t="b">
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="B28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="I28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="7" t="b">
+      <c r="M28" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="11" t="s">
+      <c r="B30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L29" s="7" t="b">
+      <c r="M30" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" s="2" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L30" s="7" t="b">
+      <c r="I31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L31" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="7" t="b">
+        <v>113</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="7" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
-    <sortCondition ref="H2:H32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M32">
+    <sortCondition ref="I2:I32"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/genus/dependo-refseqs-side-data.xlsx
+++ b/tabular/genus/dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437841E7-BA86-A34E-AA98-EDB015F3CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3649C9BC-30BF-6846-9891-9BBC00E1965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tabular/genus/dependo-refseqs-side-data.xlsx
+++ b/tabular/genus/dependo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3649C9BC-30BF-6846-9891-9BBC00E1965F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3B7B3-CE66-D849-B4E0-743E2B71C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="37540" windowHeight="20020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="132">
   <si>
     <t>virus_name</t>
   </si>
@@ -406,6 +406,21 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>MK026553</t>
+  </si>
+  <si>
+    <t>Marsupial adeno-associated virus 1</t>
+  </si>
+  <si>
+    <t>Marsupial-AAV</t>
+  </si>
+  <si>
+    <t>Macropus eugenii</t>
+  </si>
+  <si>
+    <t>Marsupial</t>
   </si>
 </sst>
 </file>
@@ -2723,17 +2738,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="A1:M32"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
@@ -4039,6 +4054,47 @@
         <v>119</v>
       </c>
       <c r="M32" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tabular/genus/dependo-refseqs-side-data.xlsx
+++ b/tabular/genus/dependo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC3B7B3-CE66-D849-B4E0-743E2B71C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC2276-F68A-9447-A5F9-10DC3A6E3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="37540" windowHeight="20020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2060" windowWidth="37540" windowHeight="20020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REFSET" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="133">
   <si>
     <t>virus_name</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Marsupial</t>
+  </si>
+  <si>
+    <t>Dependo4</t>
   </si>
 </sst>
 </file>
@@ -2740,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="K22" sqref="A1:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2817,7 +2820,7 @@
       <c r="F2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -2858,7 +2861,7 @@
       <c r="F3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -2899,7 +2902,7 @@
       <c r="F4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2940,7 +2943,7 @@
       <c r="F5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2979,7 +2982,7 @@
       <c r="F6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3018,7 +3021,7 @@
       <c r="F7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3057,7 +3060,7 @@
       <c r="F8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -3096,7 +3099,7 @@
       <c r="F9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -3135,7 +3138,7 @@
       <c r="F10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -3176,7 +3179,7 @@
       <c r="F11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -3217,7 +3220,7 @@
       <c r="F12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -3258,7 +3261,7 @@
       <c r="F13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -3299,7 +3302,7 @@
       <c r="F14" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -3340,7 +3343,7 @@
       <c r="F15" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3381,7 +3384,7 @@
       <c r="F16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3422,7 +3425,7 @@
       <c r="F17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -3463,7 +3466,7 @@
       <c r="F18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -3504,7 +3507,7 @@
       <c r="F19" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3545,7 +3548,7 @@
       <c r="F20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3586,7 +3589,7 @@
       <c r="F21" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -3627,7 +3630,7 @@
       <c r="F22" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -3668,7 +3671,7 @@
       <c r="F23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -3709,7 +3712,7 @@
       <c r="F24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -3750,7 +3753,7 @@
       <c r="F25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -3791,7 +3794,7 @@
       <c r="F26" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -3832,7 +3835,7 @@
       <c r="F27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -3873,7 +3876,7 @@
       <c r="F28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -3912,7 +3915,7 @@
       <c r="F29" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -3953,7 +3956,7 @@
       <c r="F30" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -3994,7 +3997,7 @@
       <c r="F31" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -4035,7 +4038,7 @@
       <c r="F32" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -4070,26 +4073,26 @@
       <c r="D33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>113</v>
+      <c r="E33" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>113</v>
+      <c r="I33" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>113</v>
+      <c r="K33" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>131</v>

--- a/tabular/genus/dependo-refseqs-side-data.xlsx
+++ b/tabular/genus/dependo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC2276-F68A-9447-A5F9-10DC3A6E3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856CBE9E-CAAE-954A-BC20-8CEDFD2F6076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2060" windowWidth="37540" windowHeight="20020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="137">
   <si>
     <t>virus_name</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>Dependo4</t>
+  </si>
+  <si>
+    <t>Cell culture</t>
+  </si>
+  <si>
+    <t>Myotis ricketti</t>
+  </si>
+  <si>
+    <t>Zalophus californianus</t>
+  </si>
+  <si>
+    <t>Bos taurus</t>
   </si>
 </sst>
 </file>
@@ -2743,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="K22" sqref="A1:M33"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2975,7 +2987,9 @@
       <c r="C6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E6" s="9" t="s">
         <v>112</v>
       </c>
@@ -3014,7 +3028,9 @@
       <c r="C7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>112</v>
       </c>
@@ -3053,7 +3069,9 @@
       <c r="C8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E8" s="9" t="s">
         <v>112</v>
       </c>
@@ -3092,7 +3110,9 @@
       <c r="C9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>113</v>
       </c>
@@ -3131,7 +3151,9 @@
       <c r="C10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>113</v>
       </c>
@@ -3908,7 +3930,9 @@
       <c r="C29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="E29" s="7" t="s">
         <v>113</v>
       </c>
